--- a/assets/format/format_data.xlsx
+++ b/assets/format/format_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sls_office\assets\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A475FE-2D7F-48E1-8095-20E0F3010E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC04A31-3B5F-4356-BDA9-D58B647D2EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C396EB5E-F912-434E-84E6-1D70AFC3206D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID Debit</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Contoh</t>
+  </si>
+  <si>
+    <t>Mulai</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,6 +93,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -121,12 +130,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,14 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418673AE-7532-4742-9717-282DF33F51AA}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -500,6 +511,16 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
